--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B99AACA-31C8-49C6-B639-5DC9930FC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7200801A-CBFF-4491-A01A-2DAF8486B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,11 +379,466 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>おかけで・おかけだ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托······的福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～おきに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>おかけで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>おかけだ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞（数量詞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～恐れがある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怕要······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感到······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~がする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～難い（がたい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动不动就······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vます形・名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~がちだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>がちで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>がちの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>がちな</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～かどうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形・形容詞辞書形
+形容動詞・名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～か何か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>······之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形・名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形・形容詞普通形
+形容動詞・名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~かもしれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑問詞＋動詞普通形・形容詞辞書形
+疑問詞＋形容動詞・名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～から</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通形・丁寧形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从······来说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单从来···看，就···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～からして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～から　すると・すれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从···来看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可以接续人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以接续人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~から　言うと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いえば・いっで</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～から　見ると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見れば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見て</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～から～にかけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从···到···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示时间、空间的大致范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人称
+五段动词活用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～がる
+~たがる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>たがっている</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～代わりに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容詞/形容動詞 詞幹
+Vます形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替···
+虽然···但是···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（觉得）有点···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～気味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用于不好的事情
+不一定发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~切る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切れる。切らない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···完
+···做到底（表示某种状态达到极限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明···却···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~癖に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞辞書形・形容詞辞書形
+形容動詞＋な・名詞＋の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···左右
+程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示程度时
+くらい口语/ほど书面语
+最低程度只能用くらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～くらい（ぐらい）
+～くらい～はない（表示最高程度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>動詞辞書形・形容詞辞書形
+形容動詞＋な・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +889,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +973,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,10 +1099,58 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -862,24 +1433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.9140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29" style="11" customWidth="1"/>
-    <col min="6" max="6" width="82.33203125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="11"/>
+    <col min="3" max="3" width="38" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="33.58203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="82.33203125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,10 +1465,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -913,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -929,11 +1504,11 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -950,7 +1525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -967,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
@@ -1052,25 +1627,322 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>38</v>
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="E24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="33" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F23:F24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05161A86-3544-4DFF-BEDF-3B0FE3658382}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7200801A-CBFF-4491-A01A-2DAF8486B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD3EBC-32AE-497E-94F6-3DA56F417DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,6 +839,161 @@
       </rPr>
       <t>名詞</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～こそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正是···才是···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~こと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞辞書形・ない形
+動詞普通形・丁寧形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要···不要···
+···啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示命令
+表示感叹或惊讶的心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ・そ・あ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この・その・あの＋名詞
+こんな・そんな・あんな＋名詞
+こう・そう・ああ＋動詞
+こんなに・そんなに・あんなに＋動詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样的/那样的/那样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことがある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞辞書形
+動詞た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶尔···
+（曾经）···过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことができる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞辞書形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ことに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞た形
+形容詞・形容動詞　连体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人···的是···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常使用表示感情的词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每······</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ごとに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞・動詞辞書形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞（连同···一起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことにする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞辞書形・動詞ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（我）决定···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ことにしている
+坚持···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことになる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(客观)决定···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ことになりました
+委婉地表述决定···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(客观)决定···
+也就是说···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～(という)ことになる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことになっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定···
+规定···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划
+惯例
+规章制度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +1052,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,6 +1188,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,9 +1305,6 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,6 +1321,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1433,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1446,7 +1646,7 @@
     <col min="3" max="3" width="38" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="11" customWidth="1"/>
     <col min="5" max="5" width="37.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.58203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="82.33203125" style="11" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="11"/>
   </cols>
@@ -1687,13 +1887,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1702,7 +1902,7 @@
       <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1790,13 +1990,13 @@
       <c r="A23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="34" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1804,11 +2004,11 @@
       <c r="A24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="34"/>
       <c r="E24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
@@ -1835,14 +2035,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1850,13 +2050,13 @@
       <c r="A28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1874,20 +2074,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+    <row r="30" spans="1:6" s="30" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1908,21 +2108,160 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="33" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="33" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="40" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD3EBC-32AE-497E-94F6-3DA56F417DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B539AE-CFB5-480F-BA0C-9286E6566E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,6 +994,117 @@
     <t>计划
 惯例
 规章制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ことはない・こともない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不必···
+用不着···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示没有必要做某事
+~する必要はない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～さ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容詞・形容動詞　語幹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在···的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～最中に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞ている・名詞の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～さえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚至···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～さえ～ば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要···就···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vます形
+形容詞語幹＋く
+形容動詞語幹＋で
+名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役受身形(させられる)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观感情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～しか～ない
+～しかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞
+動詞辞書形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在···上/···方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～上・上は・上の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ず(に)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不···就···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞ない形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,9 +1434,6 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,6 +1459,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1633,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1990,13 +2104,13 @@
       <c r="A23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="43" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2004,11 +2118,11 @@
       <c r="A24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="43"/>
       <c r="E24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
@@ -2136,17 +2250,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:6" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2154,7 +2268,7 @@
       <c r="A35" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>106</v>
       </c>
       <c r="E35" s="28" t="s">
@@ -2183,17 +2297,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:6" s="37" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="37" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2211,17 +2325,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="40" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:6" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2246,7 +2360,7 @@
       <c r="C42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="41" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2257,11 +2371,119 @@
       <c r="C43" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="42" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="37" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B539AE-CFB5-480F-BA0C-9286E6566E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850EB19-445F-4C98-A0E6-005CF3691BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,6 +1105,69 @@
   </si>
   <si>
     <t>動詞ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～すえ(に)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>すえの</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞の
+動詞た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···之后，结果···
+最后···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过于···
+太···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vます形
+形容詞・形容動詞　語幹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~過ぎる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ずとも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～なくても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使不···也···
+(するー＞せず)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,10 +1524,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1747,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2104,13 +2170,13 @@
       <c r="A23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="44" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2118,11 +2184,11 @@
       <c r="A24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="E24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
@@ -2451,10 +2517,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="43" t="s">
         <v>154</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -2484,6 +2550,51 @@
       </c>
       <c r="E52" s="4" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850EB19-445F-4C98-A0E6-005CF3691BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB6CE3-505A-48E1-8965-46A8750D6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,11 +558,6 @@
   </si>
   <si>
     <t>~かもしれない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑問詞＋動詞普通形・形容詞辞書形
-疑問詞＋形容動詞・名詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1168,6 +1163,333 @@
   <si>
     <t>即使不···也···
 (するー＞せず)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都怪···
+因为···
+大概是因为···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~せいで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せいだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せいか</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形
+形容詞・形容動詞　连体形
+名詞＋の・名詞＋な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ぞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～そうにない・そうもない・そうではない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样态助动词～そうだ的否定形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看样子不会···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真想···啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~たいものだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ものだ加强语气
+强烈希望(愿望)
+もの个人感受・こと客观事实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～あとで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从···之后，再也没有···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~たきり　～ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がたい　心理上・道德上
+にくい　物理上・技术上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~だけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形
+形容詞・形容動詞　连体形
+名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～しか～ない
+客观事实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示限定
+光···只···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~だけで(は)なく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示累加
+不但···而且···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光是···的话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~だけでは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～たことにする
+～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なかった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ことにする</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就当作没···过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就当作···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たつもりで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～だって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">疑問詞＋動詞普通形・形容詞辞書形
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疑問詞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋形容動詞・名詞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>相当于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>でも</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑問詞
+名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论···都···
+即使···也···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使···也···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~たとえ～ても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ばかり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">～たばかりだ 长间隔
+～たところだ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短间隔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たび（に）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞の
+動詞辞書形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当···就···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たほうがいい
+～ない方がいい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1548,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,6 +1705,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1396,7 +1730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,10 +1861,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1813,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1845,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2063,18 +2412,18 @@
         <v>45</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>14</v>
@@ -2083,10 +2432,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
@@ -2098,6 +2447,9 @@
       </c>
       <c r="E16" s="20" t="s">
         <v>48</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.3">
@@ -2127,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2154,81 +2506,81 @@
     </row>
     <row r="22" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>65</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="E24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="E24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="F27" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>37</v>
@@ -2237,29 +2589,29 @@
         <v>15</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="30" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>8</v>
@@ -2268,335 +2620,539 @@
         <v>14</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="E34" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="F34" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="E35" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="E36" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="E37" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="37" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="F38" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="E39" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="E40" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="F40" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="F41" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="42" t="s">
+      <c r="F43" s="42" t="s">
         <v>132</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="41" t="s">
+      <c r="F44" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E46" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="37" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="37" t="s">
         <v>147</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>154</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="44" t="s">
         <v>161</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="41" t="s">
+    </row>
+    <row r="56" spans="1:6" s="25" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
+    </row>
+    <row r="57" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="37" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="49" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C23:C24"/>

--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB6CE3-505A-48E1-8965-46A8750D6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C7307-7B33-4DD8-958C-95AA4BCF0BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="238">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1490,6 +1490,188 @@
   <si>
     <t>～たほうがいい
 ～ない方がいい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是という的口语表达形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~って～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞って名詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞・普通形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···的是···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是と的口语表达形式
+っていう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于～というのは
+提起话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说···
+表示传闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于～そうだ・～ということだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示事先已经做好了某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ある</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いく</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···而去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由近及远
+现在到将来
+···下去 从现在开始变化
+表示消失不见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～て以来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てくる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去去就回
+由远及近
+过去到现在
+从···一直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从···以来 长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～て見る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~てご覧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～て仕方（しかた）がない
+～て仕様（しよう）がない
+～て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>がない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～て済む
+～で済む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···就解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞・名詞　て形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,7 +1730,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1899,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1730,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,16 +2058,28 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2162,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2522,13 +2722,13 @@
       <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="50" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2536,11 +2736,11 @@
       <c r="A24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="50"/>
       <c r="E24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
@@ -3051,13 +3251,13 @@
       <c r="A63" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="47" t="s">
         <v>186</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="47" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3097,17 +3297,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="49" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:6" s="48" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="50" t="s">
+      <c r="E67" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" s="48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3152,7 +3352,115 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="25" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A82" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C23:C24"/>

--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C7307-7B33-4DD8-958C-95AA4BCF0BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DEEC3-9B5D-4320-83F3-D34B51406FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="267">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,6 +1671,206 @@
   </si>
   <si>
     <t>動詞・名詞　て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞　て形
+形容詞・形容動詞　て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堪る（たまる）否定形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てちょうだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于～てください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞　て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~て堪らない
+～てならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ては・では</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···的话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てはいられない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はじめて</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···以后···才（第一次感受到）···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是···吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ではないか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>動詞普通形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形容詞普通形
+形容動詞・名詞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~のではないか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形・形容詞普通形
+形容動詞・名詞　な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推测判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望对方做···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欲しい</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞に　動詞て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>動詞て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欲しい</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望的对象が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做给···看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見せる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示决心意志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1929,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1905,6 +2104,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1918,7 +2123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2067,20 +2272,26 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2362,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2722,13 +2933,13 @@
       <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="56" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="56" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2736,11 +2947,11 @@
       <c r="A24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="56"/>
       <c r="E24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" spans="1:6" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
@@ -3371,17 +3582,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="51" t="s">
+    <row r="74" spans="1:6" s="50" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E74" s="51" t="s">
+      <c r="E74" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F74" s="52" t="s">
+      <c r="F74" s="51" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3392,7 +3603,7 @@
       <c r="C75" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E75" s="52" t="s">
         <v>220</v>
       </c>
       <c r="F75" s="27" t="s">
@@ -3442,15 +3653,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="54" t="s">
+    <row r="81" spans="1:6" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="53" t="s">
         <v>234</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
         <v>235</v>
       </c>
@@ -3461,6 +3672,125 @@
         <v>236</v>
       </c>
     </row>
+    <row r="83" spans="1:6" s="54" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="36.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="30" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C23:C24"/>
@@ -3469,17 +3799,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05161A86-3544-4DFF-BEDF-3B0FE3658382}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/语法/N3语法.xlsx
+++ b/语法/N3语法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89E7A5-3BF6-4FB2-8CBD-53D4B364F7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853FC579-D10A-4AC2-9A89-60B59BB41BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="355">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2293,6 +2293,161 @@
   </si>
   <si>
     <t>假定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なにしろ～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>から</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～なら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果···的话
+···的话（提起话题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于～として的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为···
+因为···
+表示比较评价的基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～において・における</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～にかわり・～にかわって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于の代わりに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～に関（かん）する・～に関して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于について多用于书面语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～にくい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很难···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示动作状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V連用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～に比（くら）べて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和···相比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較（ひかく）して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意思相同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～にしても～にしても
+～にしろ～にしろ
+～にせよ～にせよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞普通形・形容詞普通形
+形容動詞・名詞（である）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论是···还是···都···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个 即使···也···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定···</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～にする</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,7 +2506,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2544,6 +2699,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2557,7 +2736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,10 +2906,25 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3013,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3373,13 +3567,13 @@
       <c r="A23" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="58" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3387,11 +3581,11 @@
       <c r="A24" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="58"/>
       <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6" s="20" customFormat="1" ht="20">
       <c r="A25" s="20" t="s">
@@ -4508,20 +4702,155 @@
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="58" customFormat="1">
-      <c r="A116" s="58" t="s">
+    <row r="116" spans="1:6" s="57" customFormat="1">
+      <c r="A116" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="E116" s="58" t="s">
+      <c r="E116" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="F116" s="58" t="s">
+      <c r="F116" s="57" t="s">
         <v>327</v>
       </c>
     </row>
+    <row r="117" spans="1:6" s="2" customFormat="1">
+      <c r="A117" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="4" customFormat="1" ht="33">
+      <c r="A118" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="59" customFormat="1" ht="49.5">
+      <c r="A119" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="F119" s="59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="61" customFormat="1">
+      <c r="A120" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="62" customFormat="1">
+      <c r="A121" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="F121" s="62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="63" customFormat="1">
+      <c r="A122" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="F122" s="63" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="13" customFormat="1">
+      <c r="A123" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="21" customFormat="1">
+      <c r="A124" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="10" customFormat="1" ht="49.5">
+      <c r="A125" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="17" customFormat="1">
+      <c r="A126" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="4" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C23:C24"/>
